--- a/money_rewards.xlsx
+++ b/money_rewards.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:B38"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:B37"/>
@@ -423,33 +423,20 @@
     <col customWidth="1" max="1" min="1" width="21.5546875"/>
   </cols>
   <sheetData>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="1"/>
     <row r="6">
       <c r="A6" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="8"/>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14"/>
+    <row r="7"/>
+    <row r="13"/>
     <row r="19">
       <c r="A19" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="23"/>
     <row r="25">
       <c r="A25" t="n">
         <v>100</v>
@@ -460,8 +447,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30"/>
-    <row r="34"/>
+    <row r="29"/>
+    <row r="31"/>
     <row r="35">
       <c r="A35" t="n">
         <v>100</v>

--- a/money_rewards.xlsx
+++ b/money_rewards.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A6:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:B37"/>
@@ -423,42 +423,32 @@
     <col customWidth="1" max="1" min="1" width="21.5546875"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7"/>
-    <row r="13"/>
+    <row r="6"/>
+    <row r="8"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="16"/>
     <row r="19">
       <c r="A19" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="23"/>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="20"/>
+    <row r="24"/>
+    <row r="25"/>
     <row r="26">
       <c r="A26" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="29"/>
-    <row r="31"/>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="27"/>
+    <row r="33"/>
     <row r="38">
       <c r="B38" t="n">
         <v>6</v>
       </c>
     </row>
+    <row r="40"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/money_rewards.xlsx
+++ b/money_rewards.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11235" windowWidth="21600" xWindow="29760" yWindow="960"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8880" windowWidth="17280" xWindow="768" yWindow="768"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A6:B40"/>
+  <dimension ref="A1:B265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="D258" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -423,32 +423,1315 @@
     <col customWidth="1" max="1" min="1" width="21.5546875"/>
   </cols>
   <sheetData>
-    <row r="6"/>
-    <row r="8"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="16"/>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>100</v>
+      </c>
+    </row>
     <row r="19">
       <c r="A19" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="20"/>
-    <row r="24"/>
-    <row r="25"/>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>100</v>
+      </c>
+    </row>
     <row r="26">
       <c r="A26" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="27"/>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>100</v>
+      </c>
+    </row>
     <row r="33"/>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>100</v>
+      </c>
+    </row>
     <row r="38">
+      <c r="A38" t="n">
+        <v>100</v>
+      </c>
       <c r="B38" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="40"/>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/money_rewards.xlsx
+++ b/money_rewards.xlsx
@@ -483,11 +483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="14"/>
     <row r="15">
       <c r="A15" t="n">
         <v>100</v>
@@ -498,11 +494,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>100</v>
-      </c>
-    </row>
     <row r="19">
       <c r="A19" t="n">
         <v>100</v>
@@ -573,7 +564,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33"/>
     <row r="35">
       <c r="A35" t="n">
         <v>100</v>

--- a/money_rewards.xlsx
+++ b/money_rewards.xlsx
@@ -443,31 +443,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="5"/>
     <row r="7">
       <c r="A7" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>100</v>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>100</v>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" t="n">
         <v>100</v>
@@ -483,7 +469,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14"/>
     <row r="15">
       <c r="A15" t="n">
         <v>100</v>
@@ -499,11 +484,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>100</v>
-      </c>
-    </row>
     <row r="21">
       <c r="A21" t="n">
         <v>100</v>
@@ -539,16 +519,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>100</v>
-      </c>
-    </row>
     <row r="30">
       <c r="A30" t="n">
         <v>100</v>
@@ -580,9 +550,6 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>100</v>
-      </c>
       <c r="B38" t="n">
         <v>6</v>
       </c>

--- a/money_rewards.xlsx
+++ b/money_rewards.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8880" windowWidth="17280" xWindow="768" yWindow="768"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12456" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B265"/>
+  <dimension ref="A4:B265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="D258" sqref="D258"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -423,57 +423,16 @@
     <col customWidth="1" max="1" min="1" width="21.5546875"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>100</v>
-      </c>
-    </row>
     <row r="4">
       <c r="A4" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="5"/>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>100</v>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>100</v>
-      </c>
-    </row>
     <row r="16">
       <c r="A16" t="n">
         <v>100</v>
@@ -484,46 +443,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>100</v>
-      </c>
-    </row>
     <row r="25">
       <c r="A25" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="29"/>
     <row r="31">
       <c r="A31" t="n">
         <v>100</v>
@@ -531,16 +456,6 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
         <v>100</v>
       </c>
     </row>
@@ -554,21 +469,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>100</v>
-      </c>
-    </row>
     <row r="42">
       <c r="A42" t="n">
         <v>100</v>
@@ -1481,11 +1381,6 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
         <v>100</v>
       </c>
     </row>

--- a/money_rewards.xlsx
+++ b/money_rewards.xlsx
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:B265"/>
+  <dimension ref="A1:B265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -423,32 +423,151 @@
     <col customWidth="1" max="1" min="1" width="21.5546875"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>100</v>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" t="n">
         <v>100</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>100</v>
+      </c>
+    </row>
     <row r="11">
       <c r="A11" t="n">
         <v>100</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>100</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" t="n">
         <v>100</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>100</v>
+      </c>
+    </row>
     <row r="19">
       <c r="A19" t="n">
         <v>100</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>100</v>
+      </c>
+    </row>
     <row r="25">
       <c r="A25" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="29"/>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>100</v>
+      </c>
+    </row>
     <row r="31">
       <c r="A31" t="n">
         <v>100</v>
@@ -459,16 +578,54 @@
         <v>100</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>100</v>
+      </c>
+    </row>
     <row r="37">
       <c r="A37" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="n">
+        <v>100</v>
+      </c>
       <c r="B38" t="n">
         <v>6</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>100</v>
+      </c>
+    </row>
     <row r="42">
       <c r="A42" t="n">
         <v>100</v>
@@ -1004,11 +1161,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>100</v>
-      </c>
-    </row>
     <row r="150">
       <c r="A150" t="n">
         <v>100</v>
@@ -1379,8 +1531,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="n">
+    <row r="224"/>
+    <row r="225">
+      <c r="A225" t="n">
         <v>100</v>
       </c>
     </row>

--- a/money_rewards.xlsx
+++ b/money_rewards.xlsx
@@ -568,11 +568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="31"/>
     <row r="32">
       <c r="A32" t="n">
         <v>100</v>
@@ -1531,7 +1527,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224"/>
     <row r="225">
       <c r="A225" t="n">
         <v>100</v>
